--- a/man/completed sheets/2016-01-25/Maurice_Corriettetimesheet250116.xlsx
+++ b/man/completed sheets/2016-01-25/Maurice_Corriettetimesheet250116.xlsx
@@ -80,8 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -134,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -161,6 +162,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -474,7 +479,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,11 +515,11 @@
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
-        <v>Total hours accounted this week: 22:00</v>
+        <v>Total hours accounted this week: 08:00</v>
       </c>
       <c r="I1" s="6">
         <f>SUM(F3:F100)</f>
-        <v>0.91666666666666674</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -567,8 +572,8 @@
       <c r="E3" s="10">
         <v>42398</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.83333333333333337</v>
+      <c r="F3" s="12">
+        <v>1.25</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1556,7 +1561,7 @@
       <c r="H100" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
